--- a/data/results/raw_combined_features_refined/hf_google_articles_score-vader_google_articles_score-ranking_score_testing.xlsx
+++ b/data/results/raw_combined_features_refined/hf_google_articles_score-vader_google_articles_score-ranking_score_testing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Episode</t>
+          <t>Values</t>
         </is>
       </c>
       <c r="C1" s="1" t="n">
@@ -453,59 +453,81 @@
       </c>
       <c r="G1" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Final Value</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2775960.836417448</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2160602.906874976</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2347527.502617296</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5485563.563985286</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2914767.304096289</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>2528103.759851528</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2851357.615062185</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3041588.567832231</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2893127.462424888</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2116107.217353361</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2831523.785550862</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3206285.556333733</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1952215.678495452</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2634596.442207656</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4777579.98610427</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Annualized Return</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4010332452872412</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2897389638376329</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.325572636022857</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.754472108596578</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4237939922529597</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sharpe Ratio</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8370045488494169</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5616484844575728</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8522895704067394</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.632536598814653</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.043831200602436</v>
       </c>
     </row>
   </sheetData>
